--- a/content kalender.xlsx
+++ b/content kalender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perni\Denne pc\Dokumenter\GitHub\eksamen-content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72EB9EB1-7511-4E2D-93BB-676FA783D83B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC97B019-80BD-48D1-ACA8-31A7F2F05040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7C638DD6-3054-41C2-B9E5-278B203AB5F1}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Dato</t>
   </si>
   <si>
-    <t>Ca. tid</t>
-  </si>
-  <si>
     <t>Facebook</t>
   </si>
   <si>
@@ -51,62 +48,107 @@
     <t>Hjemmeside</t>
   </si>
   <si>
-    <t>11.00</t>
-  </si>
-  <si>
     <t>Emne</t>
   </si>
   <si>
     <t>Content type</t>
   </si>
   <si>
-    <t>Tekst</t>
-  </si>
-  <si>
     <t>Opslag på siden</t>
   </si>
   <si>
     <t>Story</t>
   </si>
   <si>
-    <t>Dagens projekt</t>
-  </si>
-  <si>
-    <t>En fed detalie</t>
-  </si>
-  <si>
-    <t>Uge 1 jan. 2021</t>
-  </si>
-  <si>
-    <t>Mandag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onsdag </t>
-  </si>
-  <si>
-    <t>Torsdag</t>
-  </si>
-  <si>
-    <t>projekt</t>
-  </si>
-  <si>
-    <t>afleveret projekt opdateres</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>Story video</t>
-  </si>
-  <si>
-    <t>billede - Dagens projekt</t>
+    <t>jan. 2021</t>
+  </si>
+  <si>
+    <t>uge 1</t>
+  </si>
+  <si>
+    <t>uge 3</t>
+  </si>
+  <si>
+    <t>uge1</t>
+  </si>
+  <si>
+    <t>uge 4</t>
+  </si>
+  <si>
+    <t>Placering</t>
+  </si>
+  <si>
+    <t>Billede</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>Feb. 2021</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>opslag på siden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hvem er bag Lind Snedkeri </t>
+  </si>
+  <si>
+    <t>Post på egen side</t>
+  </si>
+  <si>
+    <t>Teaser/clickbait for video</t>
+  </si>
+  <si>
+    <t>(insprerende video, projekt laves)</t>
+  </si>
+  <si>
+    <t>personligt billede af malte i arbejde</t>
+  </si>
+  <si>
+    <t>projekter</t>
+  </si>
+  <si>
+    <t>projekter opdateres på hjemmeside</t>
+  </si>
+  <si>
+    <t>billeder og tekst</t>
+  </si>
+  <si>
+    <t>booomerang video</t>
+  </si>
+  <si>
+    <t>Kommende projektplaner vises</t>
+  </si>
+  <si>
+    <t>viser det færdige projekt frem</t>
+  </si>
+  <si>
+    <t>billede af lækker detalie på projekt</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>boomerang video</t>
+  </si>
+  <si>
+    <t>af lækker detalie i projekt</t>
+  </si>
+  <si>
+    <t>projekt tegninger</t>
+  </si>
+  <si>
+    <t>lækkert færdigt projekt vises</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +166,12 @@
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -175,22 +223,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,147 +664,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A020E694-D1B7-4ADD-A19E-942760E80AD0}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="D17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="34"/>
+      <c r="B23" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E23" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
+      <c r="C25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="35"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>